--- a/data/big_join.xlsx
+++ b/data/big_join.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S351"/>
+  <dimension ref="A1:T351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -440,15 +440,20 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
+          <t>alginate</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
           <t>coating</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>bio_rep</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>cell_loading</t>
         </is>
@@ -516,20 +521,25 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R2" t="inlineStr">
+      <c r="S2" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -597,20 +607,25 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -678,20 +693,25 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R4" t="inlineStr">
+      <c r="S4" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -759,20 +779,25 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R5" t="inlineStr">
+      <c r="S5" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S5" t="inlineStr">
+      <c r="T5" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -840,20 +865,25 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr">
+      <c r="S6" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -921,20 +951,25 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
+      <c r="S7" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr">
+      <c r="T7" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1002,20 +1037,25 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R8" t="inlineStr">
+      <c r="S8" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1083,20 +1123,25 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R9" t="inlineStr">
+      <c r="S9" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1164,20 +1209,25 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R10" t="inlineStr">
+      <c r="S10" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1245,20 +1295,25 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R11" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R11" t="inlineStr">
+      <c r="S11" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1326,20 +1381,25 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R12" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R12" t="inlineStr">
+      <c r="S12" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1407,20 +1467,25 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R13" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1488,20 +1553,25 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R14" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
+      <c r="S14" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1569,20 +1639,25 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R15" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R15" t="inlineStr">
+      <c r="S15" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
+      <c r="T15" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1650,20 +1725,25 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R16" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
+      <c r="S16" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1731,20 +1811,25 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="S17" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1812,20 +1897,25 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="S18" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1893,20 +1983,25 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="S19" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -1974,20 +2069,25 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2055,20 +2155,25 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R21" t="inlineStr">
+      <c r="S21" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="T21" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2136,20 +2241,25 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R22" t="inlineStr">
+      <c r="S22" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2217,20 +2327,25 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2298,20 +2413,25 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R24" t="inlineStr">
+      <c r="S24" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2379,20 +2499,25 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R25" t="inlineStr">
+      <c r="S25" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2463,12 +2588,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R26" t="inlineStr">
+      <c r="S26" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2539,12 +2664,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R27" t="inlineStr">
+      <c r="S27" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2615,12 +2740,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R28" t="inlineStr">
+      <c r="S28" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2691,12 +2816,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R29" t="inlineStr">
+      <c r="S29" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2764,20 +2889,25 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R30" t="inlineStr">
+      <c r="S30" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S30" t="inlineStr">
+      <c r="T30" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2845,20 +2975,25 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R31" t="inlineStr">
+      <c r="S31" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="T31" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -2926,20 +3061,25 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R32" t="inlineStr">
+      <c r="S32" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3007,20 +3147,25 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R33" t="inlineStr">
+      <c r="S33" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3088,20 +3233,25 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R34" t="inlineStr">
+      <c r="S34" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3169,20 +3319,25 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R35" t="inlineStr">
+      <c r="S35" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3250,20 +3405,25 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R36" t="inlineStr">
+      <c r="S36" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3331,20 +3491,25 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R37" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R37" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3412,20 +3577,25 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R38" t="inlineStr">
+      <c r="S38" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3493,20 +3663,25 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="S39" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3574,20 +3749,25 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R40" t="inlineStr">
+      <c r="S40" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3655,20 +3835,25 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R41" t="inlineStr">
+      <c r="S41" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3736,20 +3921,25 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R42" t="inlineStr">
+      <c r="S42" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3817,20 +4007,25 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R43" t="inlineStr">
+      <c r="S43" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3898,20 +4093,25 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R44" t="inlineStr">
+      <c r="S44" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -3979,20 +4179,25 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R45" t="inlineStr">
+      <c r="S45" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4060,20 +4265,25 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R46" t="inlineStr">
+      <c r="S46" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4141,20 +4351,25 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R47" t="inlineStr">
+      <c r="S47" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4222,20 +4437,25 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R48" t="inlineStr">
+      <c r="S48" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4303,20 +4523,25 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R49" t="inlineStr">
+      <c r="S49" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4384,20 +4609,25 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R50" t="inlineStr">
+      <c r="S50" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4465,20 +4695,25 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R51" t="inlineStr">
+      <c r="S51" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4546,20 +4781,25 @@
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R52" t="inlineStr">
+      <c r="S52" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S52" t="inlineStr">
+      <c r="T52" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4627,20 +4867,25 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R53" t="inlineStr">
+      <c r="S53" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="T53" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -4711,7 +4956,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R54" t="inlineStr">
+      <c r="S54" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -4782,7 +5027,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R55" t="inlineStr">
+      <c r="S55" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -4853,7 +5098,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R56" t="inlineStr">
+      <c r="S56" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -4924,7 +5169,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R57" t="inlineStr">
+      <c r="S57" t="inlineStr">
         <is>
           <t>A</t>
         </is>
@@ -4992,20 +5237,25 @@
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R58" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R58" t="inlineStr">
+      <c r="S58" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S58" t="inlineStr">
+      <c r="T58" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5073,20 +5323,25 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R59" t="inlineStr">
+      <c r="S59" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S59" t="inlineStr">
+      <c r="T59" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5154,20 +5409,25 @@
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R60" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R60" t="inlineStr">
+      <c r="S60" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S60" t="inlineStr">
+      <c r="T60" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5235,20 +5495,25 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R61" t="inlineStr">
+      <c r="S61" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="T61" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5316,20 +5581,25 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R62" t="inlineStr">
+      <c r="S62" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S62" t="inlineStr">
+      <c r="T62" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5397,20 +5667,25 @@
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R63" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R63" t="inlineStr">
+      <c r="S63" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S63" t="inlineStr">
+      <c r="T63" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5478,20 +5753,25 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R64" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R64" t="inlineStr">
+      <c r="S64" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S64" t="inlineStr">
+      <c r="T64" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5559,20 +5839,25 @@
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R65" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R65" t="inlineStr">
+      <c r="S65" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S65" t="inlineStr">
+      <c r="T65" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5640,20 +5925,25 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R66" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R66" t="inlineStr">
+      <c r="S66" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S66" t="inlineStr">
+      <c r="T66" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5721,20 +6011,25 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R67" t="inlineStr">
+      <c r="S67" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S67" t="inlineStr">
+      <c r="T67" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5802,20 +6097,25 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R68" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R68" t="inlineStr">
+      <c r="S68" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S68" t="inlineStr">
+      <c r="T68" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5883,20 +6183,25 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R69" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R69" t="inlineStr">
+      <c r="S69" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="T69" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -5964,20 +6269,25 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R70" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R70" t="inlineStr">
+      <c r="S70" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S70" t="inlineStr">
+      <c r="T70" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -6045,20 +6355,25 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R71" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R71" t="inlineStr">
+      <c r="S71" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S71" t="inlineStr">
+      <c r="T71" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -6126,20 +6441,25 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R72" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R72" t="inlineStr">
+      <c r="S72" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S72" t="inlineStr">
+      <c r="T72" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6207,20 +6527,25 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R73" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R73" t="inlineStr">
+      <c r="S73" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="T73" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6288,20 +6613,25 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R74" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R74" t="inlineStr">
+      <c r="S74" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S74" t="inlineStr">
+      <c r="T74" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6369,20 +6699,25 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R75" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R75" t="inlineStr">
+      <c r="S75" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S75" t="inlineStr">
+      <c r="T75" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6450,20 +6785,25 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R76" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R76" t="inlineStr">
+      <c r="S76" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S76" t="inlineStr">
+      <c r="T76" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6531,20 +6871,25 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R77" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R77" t="inlineStr">
+      <c r="S77" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="T77" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6612,20 +6957,25 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R78" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R78" t="inlineStr">
+      <c r="S78" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="T78" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6693,20 +7043,25 @@
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R79" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R79" t="inlineStr">
+      <c r="S79" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="T79" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6774,20 +7129,25 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="S80" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="T80" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6855,20 +7215,25 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R81" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S81" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -6936,20 +7301,25 @@
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R82" t="inlineStr">
+      <c r="S82" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S82" t="inlineStr">
+      <c r="T82" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7017,20 +7387,25 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R83" t="inlineStr">
+      <c r="S83" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="T83" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7098,20 +7473,25 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R84" t="inlineStr">
+      <c r="S84" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S84" t="inlineStr">
+      <c r="T84" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7179,20 +7559,25 @@
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R85" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R85" t="inlineStr">
+      <c r="S85" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S85" t="inlineStr">
+      <c r="T85" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7263,12 +7648,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R86" t="inlineStr">
+      <c r="S86" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="T86" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7339,12 +7724,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R87" t="inlineStr">
+      <c r="S87" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="T87" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7415,12 +7800,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R88" t="inlineStr">
+      <c r="S88" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S88" t="inlineStr">
+      <c r="T88" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7491,12 +7876,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R89" t="inlineStr">
+      <c r="S89" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S89" t="inlineStr">
+      <c r="T89" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7567,12 +7952,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R90" t="inlineStr">
+      <c r="S90" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S90" t="inlineStr">
+      <c r="T90" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7643,12 +8028,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R91" t="inlineStr">
+      <c r="S91" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S91" t="inlineStr">
+      <c r="T91" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7716,20 +8101,25 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R92" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R92" t="inlineStr">
+      <c r="S92" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S92" t="inlineStr">
+      <c r="T92" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7797,20 +8187,25 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R93" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R93" t="inlineStr">
+      <c r="S93" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S93" t="inlineStr">
+      <c r="T93" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7878,20 +8273,25 @@
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R94" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R94" t="inlineStr">
+      <c r="S94" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S94" t="inlineStr">
+      <c r="T94" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -7959,20 +8359,25 @@
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R95" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R95" t="inlineStr">
+      <c r="S95" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S95" t="inlineStr">
+      <c r="T95" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8040,20 +8445,25 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R96" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R96" t="inlineStr">
+      <c r="S96" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S96" t="inlineStr">
+      <c r="T96" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8121,20 +8531,25 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R97" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R97" t="inlineStr">
+      <c r="S97" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S97" t="inlineStr">
+      <c r="T97" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8202,20 +8617,25 @@
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R98" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R98" t="inlineStr">
+      <c r="S98" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="T98" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8283,20 +8703,25 @@
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R99" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R99" t="inlineStr">
+      <c r="S99" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S99" t="inlineStr">
+      <c r="T99" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8364,20 +8789,25 @@
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R100" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R100" t="inlineStr">
+      <c r="S100" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S100" t="inlineStr">
+      <c r="T100" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8445,20 +8875,25 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R101" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R101" t="inlineStr">
+      <c r="S101" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S101" t="inlineStr">
+      <c r="T101" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8526,20 +8961,25 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R102" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R102" t="inlineStr">
+      <c r="S102" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S102" t="inlineStr">
+      <c r="T102" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8607,20 +9047,25 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R103" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R103" t="inlineStr">
+      <c r="S103" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S103" t="inlineStr">
+      <c r="T103" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8688,20 +9133,25 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R104" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R104" t="inlineStr">
+      <c r="S104" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S104" t="inlineStr">
+      <c r="T104" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8769,20 +9219,25 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R105" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R105" t="inlineStr">
+      <c r="S105" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S105" t="inlineStr">
+      <c r="T105" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8850,20 +9305,25 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R106" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R106" t="inlineStr">
+      <c r="S106" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S106" t="inlineStr">
+      <c r="T106" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -8931,20 +9391,25 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R107" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R107" t="inlineStr">
+      <c r="S107" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S107" t="inlineStr">
+      <c r="T107" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9012,20 +9477,25 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R108" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R108" t="inlineStr">
+      <c r="S108" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S108" t="inlineStr">
+      <c r="T108" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9093,20 +9563,25 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R109" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R109" t="inlineStr">
+      <c r="S109" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S109" t="inlineStr">
+      <c r="T109" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9174,20 +9649,25 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R110" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R110" t="inlineStr">
+      <c r="S110" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S110" t="inlineStr">
+      <c r="T110" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9255,20 +9735,25 @@
       </c>
       <c r="P111" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q111" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R111" t="inlineStr">
+      <c r="S111" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S111" t="inlineStr">
+      <c r="T111" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9336,20 +9821,25 @@
       </c>
       <c r="P112" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R112" t="inlineStr">
+      <c r="S112" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S112" t="inlineStr">
+      <c r="T112" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9417,20 +9907,25 @@
       </c>
       <c r="P113" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R113" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R113" t="inlineStr">
+      <c r="S113" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S113" t="inlineStr">
+      <c r="T113" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9498,20 +9993,25 @@
       </c>
       <c r="P114" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R114" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R114" t="inlineStr">
+      <c r="S114" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S114" t="inlineStr">
+      <c r="T114" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9579,20 +10079,25 @@
       </c>
       <c r="P115" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R115" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R115" t="inlineStr">
+      <c r="S115" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S115" t="inlineStr">
+      <c r="T115" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9660,20 +10165,25 @@
       </c>
       <c r="P116" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R116" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R116" t="inlineStr">
+      <c r="S116" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S116" t="inlineStr">
+      <c r="T116" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9741,20 +10251,25 @@
       </c>
       <c r="P117" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R117" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R117" t="inlineStr">
+      <c r="S117" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S117" t="inlineStr">
+      <c r="T117" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9822,20 +10337,25 @@
       </c>
       <c r="P118" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R118" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R118" t="inlineStr">
+      <c r="S118" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S118" t="inlineStr">
+      <c r="T118" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9903,20 +10423,25 @@
       </c>
       <c r="P119" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R119" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R119" t="inlineStr">
+      <c r="S119" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S119" t="inlineStr">
+      <c r="T119" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -9987,12 +10512,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R120" t="inlineStr">
+      <c r="S120" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S120" t="inlineStr">
+      <c r="T120" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10063,12 +10588,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R121" t="inlineStr">
+      <c r="S121" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S121" t="inlineStr">
+      <c r="T121" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10139,12 +10664,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R122" t="inlineStr">
+      <c r="S122" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S122" t="inlineStr">
+      <c r="T122" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10215,12 +10740,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R123" t="inlineStr">
+      <c r="S123" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S123" t="inlineStr">
+      <c r="T123" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10291,12 +10816,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R124" t="inlineStr">
+      <c r="S124" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S124" t="inlineStr">
+      <c r="T124" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10367,12 +10892,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R125" t="inlineStr">
+      <c r="S125" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S125" t="inlineStr">
+      <c r="T125" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10440,20 +10965,25 @@
       </c>
       <c r="P126" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R126" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R126" t="inlineStr">
+      <c r="S126" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S126" t="inlineStr">
+      <c r="T126" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10521,20 +11051,25 @@
       </c>
       <c r="P127" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R127" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R127" t="inlineStr">
+      <c r="S127" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S127" t="inlineStr">
+      <c r="T127" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10602,20 +11137,25 @@
       </c>
       <c r="P128" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R128" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R128" t="inlineStr">
+      <c r="S128" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S128" t="inlineStr">
+      <c r="T128" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10683,20 +11223,25 @@
       </c>
       <c r="P129" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q129" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R129" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R129" t="inlineStr">
+      <c r="S129" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S129" t="inlineStr">
+      <c r="T129" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10764,20 +11309,25 @@
       </c>
       <c r="P130" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R130" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R130" t="inlineStr">
+      <c r="S130" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="T130" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10845,20 +11395,25 @@
       </c>
       <c r="P131" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R131" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R131" t="inlineStr">
+      <c r="S131" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S131" t="inlineStr">
+      <c r="T131" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -10926,20 +11481,25 @@
       </c>
       <c r="P132" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R132" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R132" t="inlineStr">
+      <c r="S132" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S132" t="inlineStr">
+      <c r="T132" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11007,20 +11567,25 @@
       </c>
       <c r="P133" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R133" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R133" t="inlineStr">
+      <c r="S133" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S133" t="inlineStr">
+      <c r="T133" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11088,20 +11653,25 @@
       </c>
       <c r="P134" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R134" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R134" t="inlineStr">
+      <c r="S134" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S134" t="inlineStr">
+      <c r="T134" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11169,20 +11739,25 @@
       </c>
       <c r="P135" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R135" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R135" t="inlineStr">
+      <c r="S135" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S135" t="inlineStr">
+      <c r="T135" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11250,20 +11825,25 @@
       </c>
       <c r="P136" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R136" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R136" t="inlineStr">
+      <c r="S136" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S136" t="inlineStr">
+      <c r="T136" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11331,20 +11911,25 @@
       </c>
       <c r="P137" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q137" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R137" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R137" t="inlineStr">
+      <c r="S137" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="T137" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11412,20 +11997,25 @@
       </c>
       <c r="P138" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R138" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R138" t="inlineStr">
+      <c r="S138" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S138" t="inlineStr">
+      <c r="T138" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11493,20 +12083,25 @@
       </c>
       <c r="P139" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R139" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R139" t="inlineStr">
+      <c r="S139" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S139" t="inlineStr">
+      <c r="T139" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11574,20 +12169,25 @@
       </c>
       <c r="P140" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R140" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R140" t="inlineStr">
+      <c r="S140" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S140" t="inlineStr">
+      <c r="T140" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11655,20 +12255,25 @@
       </c>
       <c r="P141" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q141" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R141" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R141" t="inlineStr">
+      <c r="S141" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S141" t="inlineStr">
+      <c r="T141" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11736,20 +12341,25 @@
       </c>
       <c r="P142" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R142" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R142" t="inlineStr">
+      <c r="S142" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S142" t="inlineStr">
+      <c r="T142" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11817,20 +12427,25 @@
       </c>
       <c r="P143" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R143" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R143" t="inlineStr">
+      <c r="S143" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S143" t="inlineStr">
+      <c r="T143" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11898,20 +12513,25 @@
       </c>
       <c r="P144" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q144" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R144" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R144" t="inlineStr">
+      <c r="S144" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S144" t="inlineStr">
+      <c r="T144" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -11979,20 +12599,25 @@
       </c>
       <c r="P145" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R145" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R145" t="inlineStr">
+      <c r="S145" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S145" t="inlineStr">
+      <c r="T145" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12060,20 +12685,25 @@
       </c>
       <c r="P146" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R146" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R146" t="inlineStr">
+      <c r="S146" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S146" t="inlineStr">
+      <c r="T146" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12141,20 +12771,25 @@
       </c>
       <c r="P147" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R147" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R147" t="inlineStr">
+      <c r="S147" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S147" t="inlineStr">
+      <c r="T147" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12222,20 +12857,25 @@
       </c>
       <c r="P148" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R148" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R148" t="inlineStr">
+      <c r="S148" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="T148" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12303,20 +12943,25 @@
       </c>
       <c r="P149" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q149" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R149" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R149" t="inlineStr">
+      <c r="S149" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="T149" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12384,20 +13029,25 @@
       </c>
       <c r="P150" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R150" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R150" t="inlineStr">
+      <c r="S150" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S150" t="inlineStr">
+      <c r="T150" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12465,20 +13115,25 @@
       </c>
       <c r="P151" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R151" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R151" t="inlineStr">
+      <c r="S151" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="T151" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12546,20 +13201,25 @@
       </c>
       <c r="P152" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q152" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R152" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R152" t="inlineStr">
+      <c r="S152" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="T152" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12627,20 +13287,25 @@
       </c>
       <c r="P153" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q153" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R153" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R153" t="inlineStr">
+      <c r="S153" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S153" t="inlineStr">
+      <c r="T153" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12708,20 +13373,25 @@
       </c>
       <c r="P154" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q154" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R154" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R154" t="inlineStr">
+      <c r="S154" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S154" t="inlineStr">
+      <c r="T154" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12789,20 +13459,25 @@
       </c>
       <c r="P155" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R155" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R155" t="inlineStr">
+      <c r="S155" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S155" t="inlineStr">
+      <c r="T155" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12870,20 +13545,25 @@
       </c>
       <c r="P156" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R156" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R156" t="inlineStr">
+      <c r="S156" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S156" t="inlineStr">
+      <c r="T156" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -12951,20 +13631,25 @@
       </c>
       <c r="P157" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q157" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R157" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R157" t="inlineStr">
+      <c r="S157" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S157" t="inlineStr">
+      <c r="T157" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13035,12 +13720,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R158" t="inlineStr">
+      <c r="S158" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S158" t="inlineStr">
+      <c r="T158" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13111,12 +13796,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R159" t="inlineStr">
+      <c r="S159" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S159" t="inlineStr">
+      <c r="T159" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13187,12 +13872,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R160" t="inlineStr">
+      <c r="S160" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="T160" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13263,12 +13948,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R161" t="inlineStr">
+      <c r="S161" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="T161" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13339,12 +14024,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R162" t="inlineStr">
+      <c r="S162" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S162" t="inlineStr">
+      <c r="T162" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13415,12 +14100,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R163" t="inlineStr">
+      <c r="S163" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S163" t="inlineStr">
+      <c r="T163" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13491,12 +14176,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R164" t="inlineStr">
+      <c r="S164" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S164" t="inlineStr">
+      <c r="T164" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13567,12 +14252,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R165" t="inlineStr">
+      <c r="S165" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="T165" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13640,20 +14325,25 @@
       </c>
       <c r="P166" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q166" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R166" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R166" t="inlineStr">
+      <c r="S166" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S166" t="inlineStr">
+      <c r="T166" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13721,20 +14411,25 @@
       </c>
       <c r="P167" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R167" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R167" t="inlineStr">
+      <c r="S167" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="T167" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13802,20 +14497,25 @@
       </c>
       <c r="P168" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R168" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R168" t="inlineStr">
+      <c r="S168" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S168" t="inlineStr">
+      <c r="T168" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13883,20 +14583,25 @@
       </c>
       <c r="P169" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R169" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R169" t="inlineStr">
+      <c r="S169" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S169" t="inlineStr">
+      <c r="T169" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -13964,20 +14669,25 @@
       </c>
       <c r="P170" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R170" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R170" t="inlineStr">
+      <c r="S170" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S170" t="inlineStr">
+      <c r="T170" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14045,20 +14755,25 @@
       </c>
       <c r="P171" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q171" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R171" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R171" t="inlineStr">
+      <c r="S171" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S171" t="inlineStr">
+      <c r="T171" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14126,20 +14841,25 @@
       </c>
       <c r="P172" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q172" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R172" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R172" t="inlineStr">
+      <c r="S172" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S172" t="inlineStr">
+      <c r="T172" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14207,20 +14927,25 @@
       </c>
       <c r="P173" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R173" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R173" t="inlineStr">
+      <c r="S173" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S173" t="inlineStr">
+      <c r="T173" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14288,20 +15013,25 @@
       </c>
       <c r="P174" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q174" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R174" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R174" t="inlineStr">
+      <c r="S174" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S174" t="inlineStr">
+      <c r="T174" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14369,20 +15099,25 @@
       </c>
       <c r="P175" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q175" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R175" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R175" t="inlineStr">
+      <c r="S175" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="T175" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14450,20 +15185,25 @@
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q176" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R176" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R176" t="inlineStr">
+      <c r="S176" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S176" t="inlineStr">
+      <c r="T176" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14531,20 +15271,25 @@
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q177" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R177" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R177" t="inlineStr">
+      <c r="S177" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S177" t="inlineStr">
+      <c r="T177" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14612,20 +15357,25 @@
       </c>
       <c r="P178" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q178" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R178" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R178" t="inlineStr">
+      <c r="S178" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr">
+      <c r="T178" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14693,20 +15443,25 @@
       </c>
       <c r="P179" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q179" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R179" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R179" t="inlineStr">
+      <c r="S179" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S179" t="inlineStr">
+      <c r="T179" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14774,20 +15529,25 @@
       </c>
       <c r="P180" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q180" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R180" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R180" t="inlineStr">
+      <c r="S180" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S180" t="inlineStr">
+      <c r="T180" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14855,20 +15615,25 @@
       </c>
       <c r="P181" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q181" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R181" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R181" t="inlineStr">
+      <c r="S181" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S181" t="inlineStr">
+      <c r="T181" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -14936,20 +15701,25 @@
       </c>
       <c r="P182" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q182" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R182" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R182" t="inlineStr">
+      <c r="S182" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S182" t="inlineStr">
+      <c r="T182" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15017,20 +15787,25 @@
       </c>
       <c r="P183" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q183" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R183" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R183" t="inlineStr">
+      <c r="S183" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S183" t="inlineStr">
+      <c r="T183" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15098,20 +15873,25 @@
       </c>
       <c r="P184" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q184" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R184" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R184" t="inlineStr">
+      <c r="S184" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S184" t="inlineStr">
+      <c r="T184" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15179,20 +15959,25 @@
       </c>
       <c r="P185" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q185" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R185" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R185" t="inlineStr">
+      <c r="S185" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S185" t="inlineStr">
+      <c r="T185" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15260,20 +16045,25 @@
       </c>
       <c r="P186" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q186" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R186" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R186" t="inlineStr">
+      <c r="S186" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S186" t="inlineStr">
+      <c r="T186" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15341,20 +16131,25 @@
       </c>
       <c r="P187" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q187" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R187" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R187" t="inlineStr">
+      <c r="S187" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S187" t="inlineStr">
+      <c r="T187" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15422,20 +16217,25 @@
       </c>
       <c r="P188" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q188" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R188" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R188" t="inlineStr">
+      <c r="S188" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S188" t="inlineStr">
+      <c r="T188" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15503,20 +16303,25 @@
       </c>
       <c r="P189" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q189" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R189" t="inlineStr">
+      <c r="S189" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S189" t="inlineStr">
+      <c r="T189" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15584,20 +16389,25 @@
       </c>
       <c r="P190" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q190" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R190" t="inlineStr">
+      <c r="S190" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S190" t="inlineStr">
+      <c r="T190" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15665,20 +16475,25 @@
       </c>
       <c r="P191" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q191" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R191" t="inlineStr">
+      <c r="S191" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S191" t="inlineStr">
+      <c r="T191" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15746,20 +16561,25 @@
       </c>
       <c r="P192" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q192" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R192" t="inlineStr">
+      <c r="S192" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S192" t="inlineStr">
+      <c r="T192" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15827,20 +16647,25 @@
       </c>
       <c r="P193" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q193" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R193" t="inlineStr">
+      <c r="S193" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S193" t="inlineStr">
+      <c r="T193" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -15911,7 +16736,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R194" t="inlineStr">
+      <c r="S194" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -15982,7 +16807,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R195" t="inlineStr">
+      <c r="S195" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -16053,7 +16878,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R196" t="inlineStr">
+      <c r="S196" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -16124,7 +16949,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R197" t="inlineStr">
+      <c r="S197" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -16195,7 +17020,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R198" t="inlineStr">
+      <c r="S198" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -16266,7 +17091,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R199" t="inlineStr">
+      <c r="S199" t="inlineStr">
         <is>
           <t>B</t>
         </is>
@@ -16334,20 +17159,25 @@
       </c>
       <c r="P200" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q200" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R200" t="inlineStr">
+      <c r="S200" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S200" t="inlineStr">
+      <c r="T200" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -16415,20 +17245,25 @@
       </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R201" t="inlineStr">
+      <c r="S201" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S201" t="inlineStr">
+      <c r="T201" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -16496,20 +17331,25 @@
       </c>
       <c r="P202" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q202" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R202" t="inlineStr">
+      <c r="S202" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S202" t="inlineStr">
+      <c r="T202" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -16577,20 +17417,25 @@
       </c>
       <c r="P203" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q203" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R203" t="inlineStr">
+      <c r="S203" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S203" t="inlineStr">
+      <c r="T203" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -16658,20 +17503,25 @@
       </c>
       <c r="P204" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q204" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R204" t="inlineStr">
+      <c r="S204" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S204" t="inlineStr">
+      <c r="T204" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -16739,20 +17589,25 @@
       </c>
       <c r="P205" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q205" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R205" t="inlineStr">
+      <c r="S205" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S205" t="inlineStr">
+      <c r="T205" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -16820,20 +17675,25 @@
       </c>
       <c r="P206" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q206" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R206" t="inlineStr">
+      <c r="S206" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S206" t="inlineStr">
+      <c r="T206" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -16901,20 +17761,25 @@
       </c>
       <c r="P207" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q207" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R207" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R207" t="inlineStr">
+      <c r="S207" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S207" t="inlineStr">
+      <c r="T207" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -16982,20 +17847,25 @@
       </c>
       <c r="P208" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q208" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R208" t="inlineStr">
+      <c r="S208" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S208" t="inlineStr">
+      <c r="T208" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17063,20 +17933,25 @@
       </c>
       <c r="P209" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q209" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R209" t="inlineStr">
+      <c r="S209" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S209" t="inlineStr">
+      <c r="T209" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17144,20 +18019,25 @@
       </c>
       <c r="P210" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q210" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R210" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R210" t="inlineStr">
+      <c r="S210" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S210" t="inlineStr">
+      <c r="T210" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17225,20 +18105,25 @@
       </c>
       <c r="P211" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q211" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R211" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R211" t="inlineStr">
+      <c r="S211" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S211" t="inlineStr">
+      <c r="T211" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17306,20 +18191,25 @@
       </c>
       <c r="P212" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q212" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R212" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R212" t="inlineStr">
+      <c r="S212" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S212" t="inlineStr">
+      <c r="T212" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17387,20 +18277,25 @@
       </c>
       <c r="P213" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q213" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R213" t="inlineStr">
+      <c r="S213" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S213" t="inlineStr">
+      <c r="T213" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17468,20 +18363,25 @@
       </c>
       <c r="P214" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q214" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R214" t="inlineStr">
+      <c r="S214" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S214" t="inlineStr">
+      <c r="T214" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17549,20 +18449,25 @@
       </c>
       <c r="P215" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q215" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R215" t="inlineStr">
+      <c r="S215" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S215" t="inlineStr">
+      <c r="T215" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17630,20 +18535,25 @@
       </c>
       <c r="P216" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q216" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R216" t="inlineStr">
+      <c r="S216" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S216" t="inlineStr">
+      <c r="T216" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17711,20 +18621,25 @@
       </c>
       <c r="P217" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q217" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R217" t="inlineStr">
+      <c r="S217" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S217" t="inlineStr">
+      <c r="T217" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17792,20 +18707,25 @@
       </c>
       <c r="P218" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q218" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R218" t="inlineStr">
+      <c r="S218" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S218" t="inlineStr">
+      <c r="T218" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17873,20 +18793,25 @@
       </c>
       <c r="P219" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q219" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R219" t="inlineStr">
+      <c r="S219" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S219" t="inlineStr">
+      <c r="T219" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -17954,20 +18879,25 @@
       </c>
       <c r="P220" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q220" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R220" t="inlineStr">
+      <c r="S220" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S220" t="inlineStr">
+      <c r="T220" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18035,20 +18965,25 @@
       </c>
       <c r="P221" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q221" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R221" t="inlineStr">
+      <c r="S221" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S221" t="inlineStr">
+      <c r="T221" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18116,20 +19051,25 @@
       </c>
       <c r="P222" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q222" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R222" t="inlineStr">
+      <c r="S222" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S222" t="inlineStr">
+      <c r="T222" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18197,20 +19137,25 @@
       </c>
       <c r="P223" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q223" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R223" t="inlineStr">
+      <c r="S223" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S223" t="inlineStr">
+      <c r="T223" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18281,12 +19226,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R224" t="inlineStr">
+      <c r="S224" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S224" t="inlineStr">
+      <c r="T224" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18357,12 +19302,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R225" t="inlineStr">
+      <c r="S225" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S225" t="inlineStr">
+      <c r="T225" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18433,12 +19378,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R226" t="inlineStr">
+      <c r="S226" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S226" t="inlineStr">
+      <c r="T226" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18509,12 +19454,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R227" t="inlineStr">
+      <c r="S227" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S227" t="inlineStr">
+      <c r="T227" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18582,20 +19527,25 @@
       </c>
       <c r="P228" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q228" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R228" t="inlineStr">
+      <c r="S228" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S228" t="inlineStr">
+      <c r="T228" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18663,20 +19613,25 @@
       </c>
       <c r="P229" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q229" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R229" t="inlineStr">
+      <c r="S229" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S229" t="inlineStr">
+      <c r="T229" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18744,20 +19699,25 @@
       </c>
       <c r="P230" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q230" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R230" t="inlineStr">
+      <c r="S230" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S230" t="inlineStr">
+      <c r="T230" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18825,20 +19785,25 @@
       </c>
       <c r="P231" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q231" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R231" t="inlineStr">
+      <c r="S231" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S231" t="inlineStr">
+      <c r="T231" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18906,20 +19871,25 @@
       </c>
       <c r="P232" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q232" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R232" t="inlineStr">
+      <c r="S232" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S232" t="inlineStr">
+      <c r="T232" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -18987,20 +19957,25 @@
       </c>
       <c r="P233" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q233" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R233" t="inlineStr">
+      <c r="S233" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S233" t="inlineStr">
+      <c r="T233" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19068,20 +20043,25 @@
       </c>
       <c r="P234" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q234" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R234" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R234" t="inlineStr">
+      <c r="S234" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S234" t="inlineStr">
+      <c r="T234" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19149,20 +20129,25 @@
       </c>
       <c r="P235" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q235" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R235" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R235" t="inlineStr">
+      <c r="S235" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S235" t="inlineStr">
+      <c r="T235" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19230,20 +20215,25 @@
       </c>
       <c r="P236" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q236" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R236" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R236" t="inlineStr">
+      <c r="S236" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S236" t="inlineStr">
+      <c r="T236" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19311,20 +20301,25 @@
       </c>
       <c r="P237" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q237" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R237" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R237" t="inlineStr">
+      <c r="S237" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S237" t="inlineStr">
+      <c r="T237" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19392,20 +20387,25 @@
       </c>
       <c r="P238" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q238" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R238" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R238" t="inlineStr">
+      <c r="S238" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S238" t="inlineStr">
+      <c r="T238" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19473,20 +20473,25 @@
       </c>
       <c r="P239" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q239" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R239" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R239" t="inlineStr">
+      <c r="S239" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S239" t="inlineStr">
+      <c r="T239" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19554,20 +20559,25 @@
       </c>
       <c r="P240" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q240" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R240" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R240" t="inlineStr">
+      <c r="S240" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S240" t="inlineStr">
+      <c r="T240" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19635,20 +20645,25 @@
       </c>
       <c r="P241" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q241" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R241" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R241" t="inlineStr">
+      <c r="S241" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S241" t="inlineStr">
+      <c r="T241" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19716,20 +20731,25 @@
       </c>
       <c r="P242" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q242" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R242" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R242" t="inlineStr">
+      <c r="S242" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S242" t="inlineStr">
+      <c r="T242" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19797,20 +20817,25 @@
       </c>
       <c r="P243" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q243" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R243" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R243" t="inlineStr">
+      <c r="S243" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S243" t="inlineStr">
+      <c r="T243" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19878,20 +20903,25 @@
       </c>
       <c r="P244" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q244" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R244" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R244" t="inlineStr">
+      <c r="S244" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S244" t="inlineStr">
+      <c r="T244" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -19959,20 +20989,25 @@
       </c>
       <c r="P245" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q245" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R245" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R245" t="inlineStr">
+      <c r="S245" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S245" t="inlineStr">
+      <c r="T245" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20040,20 +21075,25 @@
       </c>
       <c r="P246" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q246" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R246" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R246" t="inlineStr">
+      <c r="S246" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S246" t="inlineStr">
+      <c r="T246" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20121,20 +21161,25 @@
       </c>
       <c r="P247" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q247" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R247" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R247" t="inlineStr">
+      <c r="S247" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S247" t="inlineStr">
+      <c r="T247" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20202,20 +21247,25 @@
       </c>
       <c r="P248" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q248" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R248" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R248" t="inlineStr">
+      <c r="S248" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S248" t="inlineStr">
+      <c r="T248" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20283,20 +21333,25 @@
       </c>
       <c r="P249" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q249" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R249" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R249" t="inlineStr">
+      <c r="S249" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S249" t="inlineStr">
+      <c r="T249" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20364,20 +21419,25 @@
       </c>
       <c r="P250" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q250" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R250" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R250" t="inlineStr">
+      <c r="S250" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S250" t="inlineStr">
+      <c r="T250" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20445,20 +21505,25 @@
       </c>
       <c r="P251" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q251" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R251" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R251" t="inlineStr">
+      <c r="S251" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S251" t="inlineStr">
+      <c r="T251" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20526,20 +21591,25 @@
       </c>
       <c r="P252" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q252" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R252" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R252" t="inlineStr">
+      <c r="S252" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S252" t="inlineStr">
+      <c r="T252" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20607,20 +21677,25 @@
       </c>
       <c r="P253" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q253" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R253" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R253" t="inlineStr">
+      <c r="S253" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S253" t="inlineStr">
+      <c r="T253" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20688,20 +21763,25 @@
       </c>
       <c r="P254" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q254" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R254" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R254" t="inlineStr">
+      <c r="S254" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S254" t="inlineStr">
+      <c r="T254" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20769,20 +21849,25 @@
       </c>
       <c r="P255" t="inlineStr">
         <is>
-          <t>one_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q255" t="inlineStr">
         <is>
+          <t>one</t>
+        </is>
+      </c>
+      <c r="R255" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R255" t="inlineStr">
+      <c r="S255" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S255" t="inlineStr">
+      <c r="T255" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20853,12 +21938,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R256" t="inlineStr">
+      <c r="S256" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S256" t="inlineStr">
+      <c r="T256" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -20929,12 +22014,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R257" t="inlineStr">
+      <c r="S257" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S257" t="inlineStr">
+      <c r="T257" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21005,12 +22090,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R258" t="inlineStr">
+      <c r="S258" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S258" t="inlineStr">
+      <c r="T258" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21081,12 +22166,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R259" t="inlineStr">
+      <c r="S259" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S259" t="inlineStr">
+      <c r="T259" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21157,12 +22242,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R260" t="inlineStr">
+      <c r="S260" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S260" t="inlineStr">
+      <c r="T260" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21233,12 +22318,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R261" t="inlineStr">
+      <c r="S261" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S261" t="inlineStr">
+      <c r="T261" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21306,20 +22391,25 @@
       </c>
       <c r="P262" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q262" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R262" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R262" t="inlineStr">
+      <c r="S262" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S262" t="inlineStr">
+      <c r="T262" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21387,20 +22477,25 @@
       </c>
       <c r="P263" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q263" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R263" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R263" t="inlineStr">
+      <c r="S263" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S263" t="inlineStr">
+      <c r="T263" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21468,20 +22563,25 @@
       </c>
       <c r="P264" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q264" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R264" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R264" t="inlineStr">
+      <c r="S264" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S264" t="inlineStr">
+      <c r="T264" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21549,20 +22649,25 @@
       </c>
       <c r="P265" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q265" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R265" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R265" t="inlineStr">
+      <c r="S265" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S265" t="inlineStr">
+      <c r="T265" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21630,20 +22735,25 @@
       </c>
       <c r="P266" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q266" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R266" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R266" t="inlineStr">
+      <c r="S266" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S266" t="inlineStr">
+      <c r="T266" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21711,20 +22821,25 @@
       </c>
       <c r="P267" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q267" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R267" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R267" t="inlineStr">
+      <c r="S267" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S267" t="inlineStr">
+      <c r="T267" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21792,20 +22907,25 @@
       </c>
       <c r="P268" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q268" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R268" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R268" t="inlineStr">
+      <c r="S268" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S268" t="inlineStr">
+      <c r="T268" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21873,20 +22993,25 @@
       </c>
       <c r="P269" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q269" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R269" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R269" t="inlineStr">
+      <c r="S269" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S269" t="inlineStr">
+      <c r="T269" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -21954,20 +23079,25 @@
       </c>
       <c r="P270" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q270" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R270" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R270" t="inlineStr">
+      <c r="S270" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S270" t="inlineStr">
+      <c r="T270" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22035,20 +23165,25 @@
       </c>
       <c r="P271" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q271" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R271" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R271" t="inlineStr">
+      <c r="S271" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S271" t="inlineStr">
+      <c r="T271" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22116,20 +23251,25 @@
       </c>
       <c r="P272" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q272" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R272" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R272" t="inlineStr">
+      <c r="S272" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S272" t="inlineStr">
+      <c r="T272" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22197,20 +23337,25 @@
       </c>
       <c r="P273" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q273" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R273" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R273" t="inlineStr">
+      <c r="S273" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S273" t="inlineStr">
+      <c r="T273" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22278,20 +23423,25 @@
       </c>
       <c r="P274" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q274" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R274" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R274" t="inlineStr">
+      <c r="S274" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S274" t="inlineStr">
+      <c r="T274" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22359,20 +23509,25 @@
       </c>
       <c r="P275" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q275" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R275" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R275" t="inlineStr">
+      <c r="S275" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S275" t="inlineStr">
+      <c r="T275" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22440,20 +23595,25 @@
       </c>
       <c r="P276" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q276" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R276" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R276" t="inlineStr">
+      <c r="S276" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S276" t="inlineStr">
+      <c r="T276" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22521,20 +23681,25 @@
       </c>
       <c r="P277" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q277" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R277" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R277" t="inlineStr">
+      <c r="S277" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S277" t="inlineStr">
+      <c r="T277" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22602,20 +23767,25 @@
       </c>
       <c r="P278" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q278" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R278" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R278" t="inlineStr">
+      <c r="S278" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S278" t="inlineStr">
+      <c r="T278" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22683,20 +23853,25 @@
       </c>
       <c r="P279" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q279" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R279" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R279" t="inlineStr">
+      <c r="S279" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S279" t="inlineStr">
+      <c r="T279" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22764,20 +23939,25 @@
       </c>
       <c r="P280" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q280" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R280" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R280" t="inlineStr">
+      <c r="S280" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S280" t="inlineStr">
+      <c r="T280" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22845,20 +24025,25 @@
       </c>
       <c r="P281" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q281" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R281" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R281" t="inlineStr">
+      <c r="S281" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S281" t="inlineStr">
+      <c r="T281" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -22926,20 +24111,25 @@
       </c>
       <c r="P282" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q282" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R282" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R282" t="inlineStr">
+      <c r="S282" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S282" t="inlineStr">
+      <c r="T282" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -23007,20 +24197,25 @@
       </c>
       <c r="P283" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q283" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R283" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R283" t="inlineStr">
+      <c r="S283" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S283" t="inlineStr">
+      <c r="T283" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -23088,20 +24283,25 @@
       </c>
       <c r="P284" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q284" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R284" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R284" t="inlineStr">
+      <c r="S284" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S284" t="inlineStr">
+      <c r="T284" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -23169,20 +24369,25 @@
       </c>
       <c r="P285" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q285" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R285" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R285" t="inlineStr">
+      <c r="S285" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S285" t="inlineStr">
+      <c r="T285" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -23250,20 +24455,25 @@
       </c>
       <c r="P286" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q286" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R286" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R286" t="inlineStr">
+      <c r="S286" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S286" t="inlineStr">
+      <c r="T286" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -23331,20 +24541,25 @@
       </c>
       <c r="P287" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q287" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R287" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R287" t="inlineStr">
+      <c r="S287" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S287" t="inlineStr">
+      <c r="T287" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -23412,20 +24627,25 @@
       </c>
       <c r="P288" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q288" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R288" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R288" t="inlineStr">
+      <c r="S288" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S288" t="inlineStr">
+      <c r="T288" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -23493,20 +24713,25 @@
       </c>
       <c r="P289" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q289" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R289" t="inlineStr">
+        <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="R289" t="inlineStr">
+      <c r="S289" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S289" t="inlineStr">
+      <c r="T289" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -23568,7 +24793,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R290" t="inlineStr">
+      <c r="S290" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -23630,7 +24855,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R291" t="inlineStr">
+      <c r="S291" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -23692,7 +24917,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R292" t="inlineStr">
+      <c r="S292" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -23754,7 +24979,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R293" t="inlineStr">
+      <c r="S293" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -23816,7 +25041,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R294" t="inlineStr">
+      <c r="S294" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -23878,7 +25103,7 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R295" t="inlineStr">
+      <c r="S295" t="inlineStr">
         <is>
           <t>C</t>
         </is>
@@ -23946,20 +25171,25 @@
       </c>
       <c r="P296" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q296" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R296" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R296" t="inlineStr">
+      <c r="S296" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S296" t="inlineStr">
+      <c r="T296" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24027,20 +25257,25 @@
       </c>
       <c r="P297" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q297" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R297" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R297" t="inlineStr">
+      <c r="S297" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S297" t="inlineStr">
+      <c r="T297" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24108,20 +25343,25 @@
       </c>
       <c r="P298" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q298" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R298" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R298" t="inlineStr">
+      <c r="S298" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S298" t="inlineStr">
+      <c r="T298" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24189,20 +25429,25 @@
       </c>
       <c r="P299" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q299" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R299" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R299" t="inlineStr">
+      <c r="S299" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S299" t="inlineStr">
+      <c r="T299" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24270,20 +25515,25 @@
       </c>
       <c r="P300" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q300" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R300" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R300" t="inlineStr">
+      <c r="S300" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S300" t="inlineStr">
+      <c r="T300" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24351,20 +25601,25 @@
       </c>
       <c r="P301" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q301" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R301" t="inlineStr">
+      <c r="S301" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S301" t="inlineStr">
+      <c r="T301" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24432,20 +25687,25 @@
       </c>
       <c r="P302" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q302" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R302" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R302" t="inlineStr">
+      <c r="S302" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S302" t="inlineStr">
+      <c r="T302" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24513,20 +25773,25 @@
       </c>
       <c r="P303" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q303" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R303" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R303" t="inlineStr">
+      <c r="S303" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S303" t="inlineStr">
+      <c r="T303" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24594,20 +25859,25 @@
       </c>
       <c r="P304" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q304" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R304" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R304" t="inlineStr">
+      <c r="S304" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S304" t="inlineStr">
+      <c r="T304" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24675,20 +25945,25 @@
       </c>
       <c r="P305" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q305" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R305" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R305" t="inlineStr">
+      <c r="S305" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S305" t="inlineStr">
+      <c r="T305" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24756,20 +26031,25 @@
       </c>
       <c r="P306" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q306" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R306" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R306" t="inlineStr">
+      <c r="S306" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S306" t="inlineStr">
+      <c r="T306" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24837,20 +26117,25 @@
       </c>
       <c r="P307" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q307" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R307" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R307" t="inlineStr">
+      <c r="S307" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S307" t="inlineStr">
+      <c r="T307" t="inlineStr">
         <is>
           <t>low</t>
         </is>
@@ -24918,20 +26203,25 @@
       </c>
       <c r="P308" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q308" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R308" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R308" t="inlineStr">
+      <c r="S308" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S308" t="inlineStr">
+      <c r="T308" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -24999,20 +26289,25 @@
       </c>
       <c r="P309" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q309" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R309" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R309" t="inlineStr">
+      <c r="S309" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S309" t="inlineStr">
+      <c r="T309" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25080,20 +26375,25 @@
       </c>
       <c r="P310" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q310" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R310" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R310" t="inlineStr">
+      <c r="S310" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S310" t="inlineStr">
+      <c r="T310" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25161,20 +26461,25 @@
       </c>
       <c r="P311" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q311" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R311" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R311" t="inlineStr">
+      <c r="S311" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S311" t="inlineStr">
+      <c r="T311" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25242,20 +26547,25 @@
       </c>
       <c r="P312" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q312" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R312" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R312" t="inlineStr">
+      <c r="S312" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S312" t="inlineStr">
+      <c r="T312" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25323,20 +26633,25 @@
       </c>
       <c r="P313" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q313" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R313" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R313" t="inlineStr">
+      <c r="S313" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S313" t="inlineStr">
+      <c r="T313" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25404,20 +26719,25 @@
       </c>
       <c r="P314" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q314" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R314" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R314" t="inlineStr">
+      <c r="S314" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S314" t="inlineStr">
+      <c r="T314" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25485,20 +26805,25 @@
       </c>
       <c r="P315" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q315" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R315" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R315" t="inlineStr">
+      <c r="S315" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S315" t="inlineStr">
+      <c r="T315" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25566,20 +26891,25 @@
       </c>
       <c r="P316" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q316" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R316" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R316" t="inlineStr">
+      <c r="S316" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S316" t="inlineStr">
+      <c r="T316" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25647,20 +26977,25 @@
       </c>
       <c r="P317" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q317" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R317" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R317" t="inlineStr">
+      <c r="S317" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S317" t="inlineStr">
+      <c r="T317" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25728,20 +27063,25 @@
       </c>
       <c r="P318" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q318" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R318" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R318" t="inlineStr">
+      <c r="S318" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S318" t="inlineStr">
+      <c r="T318" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25809,20 +27149,25 @@
       </c>
       <c r="P319" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q319" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R319" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R319" t="inlineStr">
+      <c r="S319" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S319" t="inlineStr">
+      <c r="T319" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25893,12 +27238,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R320" t="inlineStr">
+      <c r="S320" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S320" t="inlineStr">
+      <c r="T320" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -25969,12 +27314,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R321" t="inlineStr">
+      <c r="S321" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S321" t="inlineStr">
+      <c r="T321" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26045,12 +27390,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R322" t="inlineStr">
+      <c r="S322" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S322" t="inlineStr">
+      <c r="T322" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26121,12 +27466,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R323" t="inlineStr">
+      <c r="S323" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S323" t="inlineStr">
+      <c r="T323" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26194,20 +27539,25 @@
       </c>
       <c r="P324" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q324" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R324" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R324" t="inlineStr">
+      <c r="S324" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S324" t="inlineStr">
+      <c r="T324" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26275,20 +27625,25 @@
       </c>
       <c r="P325" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q325" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R325" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R325" t="inlineStr">
+      <c r="S325" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S325" t="inlineStr">
+      <c r="T325" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26356,20 +27711,25 @@
       </c>
       <c r="P326" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q326" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R326" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R326" t="inlineStr">
+      <c r="S326" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S326" t="inlineStr">
+      <c r="T326" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26437,20 +27797,25 @@
       </c>
       <c r="P327" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q327" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R327" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R327" t="inlineStr">
+      <c r="S327" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S327" t="inlineStr">
+      <c r="T327" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26518,20 +27883,25 @@
       </c>
       <c r="P328" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q328" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R328" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R328" t="inlineStr">
+      <c r="S328" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S328" t="inlineStr">
+      <c r="T328" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26599,20 +27969,25 @@
       </c>
       <c r="P329" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q329" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R329" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R329" t="inlineStr">
+      <c r="S329" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S329" t="inlineStr">
+      <c r="T329" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26680,20 +28055,25 @@
       </c>
       <c r="P330" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q330" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R330" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R330" t="inlineStr">
+      <c r="S330" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S330" t="inlineStr">
+      <c r="T330" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26761,20 +28141,25 @@
       </c>
       <c r="P331" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q331" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R331" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R331" t="inlineStr">
+      <c r="S331" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S331" t="inlineStr">
+      <c r="T331" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26842,20 +28227,25 @@
       </c>
       <c r="P332" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q332" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R332" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R332" t="inlineStr">
+      <c r="S332" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S332" t="inlineStr">
+      <c r="T332" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -26923,20 +28313,25 @@
       </c>
       <c r="P333" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q333" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R333" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R333" t="inlineStr">
+      <c r="S333" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S333" t="inlineStr">
+      <c r="T333" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27004,20 +28399,25 @@
       </c>
       <c r="P334" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q334" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R334" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R334" t="inlineStr">
+      <c r="S334" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S334" t="inlineStr">
+      <c r="T334" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27085,20 +28485,25 @@
       </c>
       <c r="P335" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q335" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R335" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R335" t="inlineStr">
+      <c r="S335" t="inlineStr">
         <is>
           <t>A</t>
         </is>
       </c>
-      <c r="S335" t="inlineStr">
+      <c r="T335" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27166,20 +28571,25 @@
       </c>
       <c r="P336" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q336" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R336" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R336" t="inlineStr">
+      <c r="S336" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S336" t="inlineStr">
+      <c r="T336" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27247,20 +28657,25 @@
       </c>
       <c r="P337" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q337" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R337" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R337" t="inlineStr">
+      <c r="S337" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S337" t="inlineStr">
+      <c r="T337" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27328,20 +28743,25 @@
       </c>
       <c r="P338" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q338" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R338" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R338" t="inlineStr">
+      <c r="S338" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S338" t="inlineStr">
+      <c r="T338" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27409,20 +28829,25 @@
       </c>
       <c r="P339" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q339" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R339" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R339" t="inlineStr">
+      <c r="S339" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S339" t="inlineStr">
+      <c r="T339" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27490,20 +28915,25 @@
       </c>
       <c r="P340" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q340" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R340" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R340" t="inlineStr">
+      <c r="S340" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S340" t="inlineStr">
+      <c r="T340" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27571,20 +29001,25 @@
       </c>
       <c r="P341" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q341" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R341" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R341" t="inlineStr">
+      <c r="S341" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S341" t="inlineStr">
+      <c r="T341" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27652,20 +29087,25 @@
       </c>
       <c r="P342" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q342" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R342" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R342" t="inlineStr">
+      <c r="S342" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S342" t="inlineStr">
+      <c r="T342" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27733,20 +29173,25 @@
       </c>
       <c r="P343" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q343" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R343" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R343" t="inlineStr">
+      <c r="S343" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S343" t="inlineStr">
+      <c r="T343" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27814,20 +29259,25 @@
       </c>
       <c r="P344" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q344" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R344" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R344" t="inlineStr">
+      <c r="S344" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S344" t="inlineStr">
+      <c r="T344" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27895,20 +29345,25 @@
       </c>
       <c r="P345" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q345" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R345" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R345" t="inlineStr">
+      <c r="S345" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S345" t="inlineStr">
+      <c r="T345" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -27976,20 +29431,25 @@
       </c>
       <c r="P346" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q346" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R346" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R346" t="inlineStr">
+      <c r="S346" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S346" t="inlineStr">
+      <c r="T346" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -28057,20 +29517,25 @@
       </c>
       <c r="P347" t="inlineStr">
         <is>
-          <t>two_alg</t>
+          <t>encapsulated</t>
         </is>
       </c>
       <c r="Q347" t="inlineStr">
         <is>
+          <t>two</t>
+        </is>
+      </c>
+      <c r="R347" t="inlineStr">
+        <is>
           <t>no</t>
         </is>
       </c>
-      <c r="R347" t="inlineStr">
+      <c r="S347" t="inlineStr">
         <is>
           <t>B</t>
         </is>
       </c>
-      <c r="S347" t="inlineStr">
+      <c r="T347" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -28141,12 +29606,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R348" t="inlineStr">
+      <c r="S348" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S348" t="inlineStr">
+      <c r="T348" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -28217,12 +29682,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R349" t="inlineStr">
+      <c r="S349" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S349" t="inlineStr">
+      <c r="T349" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -28293,12 +29758,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R350" t="inlineStr">
+      <c r="S350" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S350" t="inlineStr">
+      <c r="T350" t="inlineStr">
         <is>
           <t>high</t>
         </is>
@@ -28369,12 +29834,12 @@
           <t>planktonic</t>
         </is>
       </c>
-      <c r="R351" t="inlineStr">
+      <c r="S351" t="inlineStr">
         <is>
           <t>C</t>
         </is>
       </c>
-      <c r="S351" t="inlineStr">
+      <c r="T351" t="inlineStr">
         <is>
           <t>high</t>
         </is>
